--- a/src/assets/pokemons.xlsx
+++ b/src/assets/pokemons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\PycharmProjects\kappaBot\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FFF1AD-EE77-46E7-9C51-E9489A36F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19BA09E-D6B2-42B7-85E7-B186A8521D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{83B8802A-EBCE-4428-B558-E29BF9542BBD}"/>
   </bookViews>
@@ -6312,21 +6312,6 @@
     <t>Galarian Darmanitan, evolução da versão Ice do Darumaka, costuma guardar comida na bola de neve que tem na cabeça e leva para casa para mais tarde.</t>
   </si>
   <si>
-    <t>0479-heat</t>
-  </si>
-  <si>
-    <t>0479-wash</t>
-  </si>
-  <si>
-    <t>0479-frost</t>
-  </si>
-  <si>
-    <t>0479-fan</t>
-  </si>
-  <si>
-    <t>0479-mow</t>
-  </si>
-  <si>
     <t>0555-zen</t>
   </si>
   <si>
@@ -8026,6 +8011,21 @@
   </si>
   <si>
     <t>649</t>
+  </si>
+  <si>
+    <t>479-heat</t>
+  </si>
+  <si>
+    <t>479-wash</t>
+  </si>
+  <si>
+    <t>479-frost</t>
+  </si>
+  <si>
+    <t>479-fan</t>
+  </si>
+  <si>
+    <t>479-mow</t>
   </si>
 </sst>
 </file>
@@ -8408,8 +8408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F08EBD-56E7-499D-9C6A-E4FE5F399D2B}">
   <dimension ref="A1:F660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8437,7 +8437,7 @@
         <v>269</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8457,7 +8457,7 @@
         <v>271</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8477,7 +8477,7 @@
         <v>272</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>273</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8517,7 +8517,7 @@
         <v>274</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8537,7 +8537,7 @@
         <v>275</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8557,7 +8557,7 @@
         <v>277</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8577,7 +8577,7 @@
         <v>278</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8597,7 +8597,7 @@
         <v>279</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
         <v>280</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8637,7 +8637,7 @@
         <v>281</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8657,7 +8657,7 @@
         <v>282</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8677,7 +8677,7 @@
         <v>284</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8697,7 +8697,7 @@
         <v>286</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8717,7 +8717,7 @@
         <v>287</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8737,7 +8737,7 @@
         <v>288</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8757,7 +8757,7 @@
         <v>290</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8777,7 +8777,7 @@
         <v>291</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8797,7 +8797,7 @@
         <v>292</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8817,7 +8817,7 @@
         <v>293</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
         <v>294</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8857,7 +8857,7 @@
         <v>295</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8877,7 +8877,7 @@
         <v>296</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
         <v>297</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8917,7 +8917,7 @@
         <v>298</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8937,7 +8937,7 @@
         <v>299</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8957,7 +8957,7 @@
         <v>300</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8977,7 +8977,7 @@
         <v>301</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8997,7 +8997,7 @@
         <v>302</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9017,7 +9017,7 @@
         <v>303</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9037,7 +9037,7 @@
         <v>304</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,7 +9057,7 @@
         <v>306</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9077,7 +9077,7 @@
         <v>307</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9097,7 +9097,7 @@
         <v>308</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9117,7 +9117,7 @@
         <v>309</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9137,7 +9137,7 @@
         <v>310</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9157,7 +9157,7 @@
         <v>311</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9177,7 +9177,7 @@
         <v>312</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9197,7 +9197,7 @@
         <v>313</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9217,7 +9217,7 @@
         <v>315</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9237,7 +9237,7 @@
         <v>316</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9257,7 +9257,7 @@
         <v>318</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9277,7 +9277,7 @@
         <v>319</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9297,7 +9297,7 @@
         <v>320</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9317,7 +9317,7 @@
         <v>321</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9337,7 +9337,7 @@
         <v>322</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9357,7 +9357,7 @@
         <v>324</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9377,7 +9377,7 @@
         <v>325</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9397,7 +9397,7 @@
         <v>326</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9417,7 +9417,7 @@
         <v>327</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9437,7 +9437,7 @@
         <v>328</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9457,7 +9457,7 @@
         <v>329</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9477,7 +9477,7 @@
         <v>330</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9497,7 +9497,7 @@
         <v>331</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9517,7 +9517,7 @@
         <v>332</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9537,7 +9537,7 @@
         <v>333</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9557,7 +9557,7 @@
         <v>334</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9577,7 +9577,7 @@
         <v>335</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9597,7 +9597,7 @@
         <v>336</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9617,7 +9617,7 @@
         <v>337</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9637,7 +9637,7 @@
         <v>338</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9657,7 +9657,7 @@
         <v>339</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
         <v>341</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9697,7 +9697,7 @@
         <v>342</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9717,7 +9717,7 @@
         <v>343</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9737,7 +9737,7 @@
         <v>344</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9757,7 +9757,7 @@
         <v>345</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9777,7 +9777,7 @@
         <v>346</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9797,7 +9797,7 @@
         <v>347</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9817,7 +9817,7 @@
         <v>348</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9837,7 +9837,7 @@
         <v>349</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9857,7 +9857,7 @@
         <v>350</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9877,7 +9877,7 @@
         <v>352</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,7 +9897,7 @@
         <v>353</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9917,7 +9917,7 @@
         <v>355</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9937,7 +9937,7 @@
         <v>356</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9957,7 +9957,7 @@
         <v>357</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9977,7 +9977,7 @@
         <v>358</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9997,7 +9997,7 @@
         <v>359</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10017,7 +10017,7 @@
         <v>361</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -10037,7 +10037,7 @@
         <v>362</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -10057,7 +10057,7 @@
         <v>364</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>365</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10097,7 +10097,7 @@
         <v>366</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -10117,7 +10117,7 @@
         <v>367</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -10137,7 +10137,7 @@
         <v>368</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -10157,7 +10157,7 @@
         <v>369</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -10177,7 +10177,7 @@
         <v>371</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -10197,7 +10197,7 @@
         <v>372</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
         <v>373</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -10237,7 +10237,7 @@
         <v>374</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -10257,7 +10257,7 @@
         <v>375</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -10277,7 +10277,7 @@
         <v>377</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -10297,7 +10297,7 @@
         <v>378</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -10317,7 +10317,7 @@
         <v>379</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
         <v>380</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -10357,7 +10357,7 @@
         <v>381</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -10377,7 +10377,7 @@
         <v>382</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -10397,7 +10397,7 @@
         <v>383</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -10417,7 +10417,7 @@
         <v>384</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -10437,7 +10437,7 @@
         <v>385</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -10457,7 +10457,7 @@
         <v>386</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -10477,7 +10477,7 @@
         <v>388</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -10497,7 +10497,7 @@
         <v>389</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -10517,7 +10517,7 @@
         <v>390</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -10537,7 +10537,7 @@
         <v>391</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -10557,7 +10557,7 @@
         <v>392</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
         <v>393</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -10597,7 +10597,7 @@
         <v>394</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -10617,7 +10617,7 @@
         <v>395</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -10637,7 +10637,7 @@
         <v>396</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
         <v>398</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -10677,7 +10677,7 @@
         <v>399</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -10697,7 +10697,7 @@
         <v>400</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -10717,7 +10717,7 @@
         <v>401</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -10737,7 +10737,7 @@
         <v>402</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -10757,7 +10757,7 @@
         <v>403</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -10777,7 +10777,7 @@
         <v>404</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -10797,7 +10797,7 @@
         <v>405</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -10817,7 +10817,7 @@
         <v>406</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -10837,7 +10837,7 @@
         <v>407</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -10857,7 +10857,7 @@
         <v>408</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -10877,7 +10877,7 @@
         <v>410</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -10897,7 +10897,7 @@
         <v>411</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -10917,7 +10917,7 @@
         <v>413</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
         <v>414</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -10957,7 +10957,7 @@
         <v>415</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -10977,7 +10977,7 @@
         <v>416</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -10997,7 +10997,7 @@
         <v>417</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -11017,7 +11017,7 @@
         <v>418</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -11037,7 +11037,7 @@
         <v>420</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -11057,7 +11057,7 @@
         <v>421</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -11077,7 +11077,7 @@
         <v>422</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -11097,7 +11097,7 @@
         <v>423</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -11117,7 +11117,7 @@
         <v>424</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -11137,7 +11137,7 @@
         <v>425</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -11157,7 +11157,7 @@
         <v>426</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -11177,7 +11177,7 @@
         <v>427</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -11197,7 +11197,7 @@
         <v>429</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -11217,7 +11217,7 @@
         <v>430</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -11237,7 +11237,7 @@
         <v>431</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
         <v>432</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -11277,7 +11277,7 @@
         <v>434</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -11297,7 +11297,7 @@
         <v>435</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -11317,7 +11317,7 @@
         <v>437</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -11337,7 +11337,7 @@
         <v>439</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -11357,7 +11357,7 @@
         <v>440</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -11377,7 +11377,7 @@
         <v>441</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -11397,7 +11397,7 @@
         <v>442</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -11417,7 +11417,7 @@
         <v>444</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -11437,7 +11437,7 @@
         <v>445</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -11457,7 +11457,7 @@
         <v>446</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -11477,7 +11477,7 @@
         <v>447</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -11497,7 +11497,7 @@
         <v>448</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
         <v>449</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -11537,7 +11537,7 @@
         <v>450</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -11557,7 +11557,7 @@
         <v>451</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -11577,7 +11577,7 @@
         <v>452</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -11597,7 +11597,7 @@
         <v>453</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -11617,7 +11617,7 @@
         <v>454</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -11637,7 +11637,7 @@
         <v>455</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -11657,7 +11657,7 @@
         <v>456</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -11677,7 +11677,7 @@
         <v>457</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -11697,7 +11697,7 @@
         <v>458</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -11717,7 +11717,7 @@
         <v>459</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -11737,7 +11737,7 @@
         <v>460</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -11757,7 +11757,7 @@
         <v>461</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -11777,7 +11777,7 @@
         <v>462</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -11797,7 +11797,7 @@
         <v>463</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -11817,7 +11817,7 @@
         <v>464</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -11837,7 +11837,7 @@
         <v>466</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -11857,7 +11857,7 @@
         <v>467</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -11877,7 +11877,7 @@
         <v>468</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -11897,7 +11897,7 @@
         <v>469</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -11917,7 +11917,7 @@
         <v>470</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -11937,7 +11937,7 @@
         <v>471</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -11957,7 +11957,7 @@
         <v>473</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -11977,7 +11977,7 @@
         <v>475</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -11997,7 +11997,7 @@
         <v>476</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -12017,7 +12017,7 @@
         <v>477</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -12037,7 +12037,7 @@
         <v>478</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -12057,7 +12057,7 @@
         <v>479</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -12077,7 +12077,7 @@
         <v>480</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -12097,7 +12097,7 @@
         <v>482</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -12117,7 +12117,7 @@
         <v>483</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -12137,7 +12137,7 @@
         <v>484</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -12157,7 +12157,7 @@
         <v>485</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
         <v>487</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -12197,7 +12197,7 @@
         <v>488</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -12217,7 +12217,7 @@
         <v>489</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -12237,7 +12237,7 @@
         <v>490</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -12257,7 +12257,7 @@
         <v>491</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -12277,7 +12277,7 @@
         <v>492</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -12297,7 +12297,7 @@
         <v>493</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -12317,7 +12317,7 @@
         <v>495</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -12337,7 +12337,7 @@
         <v>496</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -12357,7 +12357,7 @@
         <v>497</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
         <v>498</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -12397,7 +12397,7 @@
         <v>500</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -12417,7 +12417,7 @@
         <v>501</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -12437,7 +12437,7 @@
         <v>502</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -12457,7 +12457,7 @@
         <v>503</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -12477,7 +12477,7 @@
         <v>504</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -12497,7 +12497,7 @@
         <v>506</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -12517,7 +12517,7 @@
         <v>507</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -12537,7 +12537,7 @@
         <v>509</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -12557,7 +12557,7 @@
         <v>510</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -12577,7 +12577,7 @@
         <v>512</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -12597,7 +12597,7 @@
         <v>514</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -12617,7 +12617,7 @@
         <v>515</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -12637,7 +12637,7 @@
         <v>516</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -12657,7 +12657,7 @@
         <v>517</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -12677,7 +12677,7 @@
         <v>518</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -12697,7 +12697,7 @@
         <v>520</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -12717,7 +12717,7 @@
         <v>522</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
         <v>524</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -12757,7 +12757,7 @@
         <v>525</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -12777,7 +12777,7 @@
         <v>526</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -12797,7 +12797,7 @@
         <v>527</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -12817,7 +12817,7 @@
         <v>529</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -12837,7 +12837,7 @@
         <v>531</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
         <v>532</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -12877,7 +12877,7 @@
         <v>534</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -12897,7 +12897,7 @@
         <v>535</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -12917,7 +12917,7 @@
         <v>536</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -12937,7 +12937,7 @@
         <v>537</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -12957,7 +12957,7 @@
         <v>538</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
         <v>540</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -12997,7 +12997,7 @@
         <v>542</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -13017,7 +13017,7 @@
         <v>543</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
         <v>545</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -13057,7 +13057,7 @@
         <v>546</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -13077,7 +13077,7 @@
         <v>547</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>548</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -13117,7 +13117,7 @@
         <v>549</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -13137,7 +13137,7 @@
         <v>550</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -13157,7 +13157,7 @@
         <v>551</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -13177,7 +13177,7 @@
         <v>552</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -13197,7 +13197,7 @@
         <v>553</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
         <v>554</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -13237,7 +13237,7 @@
         <v>555</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -13257,7 +13257,7 @@
         <v>556</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
         <v>557</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -13297,7 +13297,7 @@
         <v>558</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -13317,7 +13317,7 @@
         <v>559</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
         <v>560</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -13357,7 +13357,7 @@
         <v>561</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -13377,7 +13377,7 @@
         <v>562</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -13397,7 +13397,7 @@
         <v>564</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -13417,7 +13417,7 @@
         <v>565</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -13437,7 +13437,7 @@
         <v>566</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>568</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -13477,7 +13477,7 @@
         <v>571</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -13497,7 +13497,7 @@
         <v>573</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -13517,7 +13517,7 @@
         <v>575</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -13537,7 +13537,7 @@
         <v>577</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -13557,7 +13557,7 @@
         <v>580</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -13577,7 +13577,7 @@
         <v>582</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -13597,7 +13597,7 @@
         <v>584</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -13617,7 +13617,7 @@
         <v>586</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -13637,7 +13637,7 @@
         <v>588</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -13657,7 +13657,7 @@
         <v>590</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -13677,7 +13677,7 @@
         <v>592</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -13697,7 +13697,7 @@
         <v>594</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -13717,7 +13717,7 @@
         <v>596</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -13737,7 +13737,7 @@
         <v>598</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
         <v>600</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -13777,7 +13777,7 @@
         <v>602</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -13797,7 +13797,7 @@
         <v>604</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -13817,7 +13817,7 @@
         <v>606</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -13837,7 +13837,7 @@
         <v>609</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -13857,7 +13857,7 @@
         <v>611</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -13877,7 +13877,7 @@
         <v>613</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -13897,7 +13897,7 @@
         <v>615</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -13917,7 +13917,7 @@
         <v>618</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -13937,7 +13937,7 @@
         <v>620</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -13957,7 +13957,7 @@
         <v>622</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -13977,7 +13977,7 @@
         <v>624</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -13997,7 +13997,7 @@
         <v>626</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -14017,7 +14017,7 @@
         <v>628</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -14037,7 +14037,7 @@
         <v>630</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -14057,7 +14057,7 @@
         <v>632</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -14077,7 +14077,7 @@
         <v>634</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -14097,7 +14097,7 @@
         <v>637</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -14117,7 +14117,7 @@
         <v>639</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -14137,7 +14137,7 @@
         <v>641</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -14157,7 +14157,7 @@
         <v>644</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -14177,7 +14177,7 @@
         <v>646</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -14197,7 +14197,7 @@
         <v>648</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -14217,7 +14217,7 @@
         <v>650</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -14237,7 +14237,7 @@
         <v>653</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -14257,7 +14257,7 @@
         <v>655</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -14277,7 +14277,7 @@
         <v>658</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -14297,7 +14297,7 @@
         <v>660</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -14317,7 +14317,7 @@
         <v>662</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -14337,7 +14337,7 @@
         <v>664</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -14357,7 +14357,7 @@
         <v>666</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -14377,7 +14377,7 @@
         <v>668</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -14397,7 +14397,7 @@
         <v>670</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -14417,7 +14417,7 @@
         <v>672</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -14437,7 +14437,7 @@
         <v>674</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -14457,7 +14457,7 @@
         <v>676</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>2411</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -14477,7 +14477,7 @@
         <v>679</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>682</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -14517,7 +14517,7 @@
         <v>685</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -14537,7 +14537,7 @@
         <v>687</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -14557,7 +14557,7 @@
         <v>689</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -14577,7 +14577,7 @@
         <v>692</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -14597,7 +14597,7 @@
         <v>694</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -14617,7 +14617,7 @@
         <v>696</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -14637,7 +14637,7 @@
         <v>698</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -14657,7 +14657,7 @@
         <v>700</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -14677,7 +14677,7 @@
         <v>702</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -14697,7 +14697,7 @@
         <v>704</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -14717,7 +14717,7 @@
         <v>706</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -14737,7 +14737,7 @@
         <v>708</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -14757,7 +14757,7 @@
         <v>710</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -14777,7 +14777,7 @@
         <v>712</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -14797,7 +14797,7 @@
         <v>715</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -14817,7 +14817,7 @@
         <v>717</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -14837,7 +14837,7 @@
         <v>719</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -14857,7 +14857,7 @@
         <v>721</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -14877,7 +14877,7 @@
         <v>724</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -14897,7 +14897,7 @@
         <v>726</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -14917,7 +14917,7 @@
         <v>728</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -14937,7 +14937,7 @@
         <v>730</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -14957,7 +14957,7 @@
         <v>732</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -14977,7 +14977,7 @@
         <v>734</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -14997,7 +14997,7 @@
         <v>736</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -15017,7 +15017,7 @@
         <v>739</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -15037,7 +15037,7 @@
         <v>741</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -15057,7 +15057,7 @@
         <v>743</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -15077,7 +15077,7 @@
         <v>745</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -15097,7 +15097,7 @@
         <v>747</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -15117,7 +15117,7 @@
         <v>749</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -15137,7 +15137,7 @@
         <v>751</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -15157,7 +15157,7 @@
         <v>753</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -15177,7 +15177,7 @@
         <v>756</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -15197,7 +15197,7 @@
         <v>758</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -15217,7 +15217,7 @@
         <v>760</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -15237,7 +15237,7 @@
         <v>762</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -15257,7 +15257,7 @@
         <v>764</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -15277,7 +15277,7 @@
         <v>766</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -15297,7 +15297,7 @@
         <v>769</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -15317,7 +15317,7 @@
         <v>771</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -15337,7 +15337,7 @@
         <v>774</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -15357,7 +15357,7 @@
         <v>776</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -15377,7 +15377,7 @@
         <v>779</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -15397,7 +15397,7 @@
         <v>781</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -15417,7 +15417,7 @@
         <v>783</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -15437,7 +15437,7 @@
         <v>785</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -15457,7 +15457,7 @@
         <v>787</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -15477,7 +15477,7 @@
         <v>789</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -15497,7 +15497,7 @@
         <v>791</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -15517,7 +15517,7 @@
         <v>793</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -15537,7 +15537,7 @@
         <v>795</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -15557,7 +15557,7 @@
         <v>797</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -15577,7 +15577,7 @@
         <v>799</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -15597,7 +15597,7 @@
         <v>801</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -15617,7 +15617,7 @@
         <v>803</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -15637,7 +15637,7 @@
         <v>805</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -15657,7 +15657,7 @@
         <v>808</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -15677,7 +15677,7 @@
         <v>810</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -15697,7 +15697,7 @@
         <v>813</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -15717,7 +15717,7 @@
         <v>815</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -15737,7 +15737,7 @@
         <v>817</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -15757,7 +15757,7 @@
         <v>819</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -15777,7 +15777,7 @@
         <v>821</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -15797,7 +15797,7 @@
         <v>823</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -15817,7 +15817,7 @@
         <v>825</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -15837,7 +15837,7 @@
         <v>827</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>2480</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -15857,7 +15857,7 @@
         <v>829</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>2481</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -15877,7 +15877,7 @@
         <v>831</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -15897,7 +15897,7 @@
         <v>833</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>2483</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -15917,7 +15917,7 @@
         <v>836</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -15937,7 +15937,7 @@
         <v>838</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>2485</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -15957,7 +15957,7 @@
         <v>840</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -15977,7 +15977,7 @@
         <v>842</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -15997,7 +15997,7 @@
         <v>844</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -16017,7 +16017,7 @@
         <v>847</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -16037,7 +16037,7 @@
         <v>850</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -16057,7 +16057,7 @@
         <v>852</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -16077,7 +16077,7 @@
         <v>854</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -16097,7 +16097,7 @@
         <v>856</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -16117,7 +16117,7 @@
         <v>858</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -16137,7 +16137,7 @@
         <v>860</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -16157,7 +16157,7 @@
         <v>862</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -16177,7 +16177,7 @@
         <v>1250</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -16197,7 +16197,7 @@
         <v>1252</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -16217,7 +16217,7 @@
         <v>1255</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -16237,7 +16237,7 @@
         <v>1257</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -16257,7 +16257,7 @@
         <v>1259</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -16277,7 +16277,7 @@
         <v>1261</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -16297,7 +16297,7 @@
         <v>1263</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -16317,7 +16317,7 @@
         <v>1265</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>2504</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -16337,7 +16337,7 @@
         <v>1268</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>2505</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -16357,7 +16357,7 @@
         <v>1270</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>2506</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -16377,7 +16377,7 @@
         <v>1272</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>2507</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -16397,7 +16397,7 @@
         <v>1274</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>2508</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -16417,7 +16417,7 @@
         <v>1276</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>2509</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -16437,7 +16437,7 @@
         <v>1279</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>2510</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -16457,7 +16457,7 @@
         <v>1281</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>2511</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -16477,7 +16477,7 @@
         <v>1283</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>2512</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -16497,7 +16497,7 @@
         <v>1285</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>2513</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -16517,7 +16517,7 @@
         <v>1287</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>2514</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -16537,7 +16537,7 @@
         <v>1289</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -16557,7 +16557,7 @@
         <v>1291</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -16577,7 +16577,7 @@
         <v>1293</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -16597,7 +16597,7 @@
         <v>1316</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -16617,7 +16617,7 @@
         <v>1318</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>2519</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -16637,7 +16637,7 @@
         <v>1321</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -16657,7 +16657,7 @@
         <v>1323</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>2521</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -16677,7 +16677,7 @@
         <v>1325</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -16697,7 +16697,7 @@
         <v>1328</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>2523</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -16717,7 +16717,7 @@
         <v>1330</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>2524</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -16737,7 +16737,7 @@
         <v>1332</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -16757,7 +16757,7 @@
         <v>1334</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -16777,7 +16777,7 @@
         <v>1336</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -16797,7 +16797,7 @@
         <v>1338</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -16817,7 +16817,7 @@
         <v>1340</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -16837,7 +16837,7 @@
         <v>1342</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -16857,7 +16857,7 @@
         <v>1344</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -16877,7 +16877,7 @@
         <v>1346</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -16897,7 +16897,7 @@
         <v>1348</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -16917,7 +16917,7 @@
         <v>1350</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -16937,7 +16937,7 @@
         <v>1353</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>2535</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -16957,7 +16957,7 @@
         <v>1355</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>2536</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -16977,7 +16977,7 @@
         <v>1357</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -16997,7 +16997,7 @@
         <v>1359</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -17017,7 +17017,7 @@
         <v>1361</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -17037,7 +17037,7 @@
         <v>1363</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -17057,7 +17057,7 @@
         <v>1365</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -17077,7 +17077,7 @@
         <v>1367</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -17097,7 +17097,7 @@
         <v>1369</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -17117,7 +17117,7 @@
         <v>1372</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -17137,7 +17137,7 @@
         <v>1374</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -17157,7 +17157,7 @@
         <v>1376</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -17177,7 +17177,7 @@
         <v>1378</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>2547</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -17197,7 +17197,7 @@
         <v>1380</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>2548</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -17217,7 +17217,7 @@
         <v>1382</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>2549</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
         <v>1384</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -17257,7 +17257,7 @@
         <v>1386</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -17277,7 +17277,7 @@
         <v>1389</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -17297,7 +17297,7 @@
         <v>1392</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>2553</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -17317,7 +17317,7 @@
         <v>1394</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>2554</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -17337,7 +17337,7 @@
         <v>1396</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>2555</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -17357,7 +17357,7 @@
         <v>1398</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>2556</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -17377,7 +17377,7 @@
         <v>1400</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>2557</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -17397,7 +17397,7 @@
         <v>1403</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>2558</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -17417,7 +17417,7 @@
         <v>1405</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>2559</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -17437,7 +17437,7 @@
         <v>1407</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>2560</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -17457,7 +17457,7 @@
         <v>1410</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -17477,7 +17477,7 @@
         <v>1412</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -17497,7 +17497,7 @@
         <v>1415</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -17517,7 +17517,7 @@
         <v>1417</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -17537,7 +17537,7 @@
         <v>1419</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -17557,7 +17557,7 @@
         <v>1421</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -17577,7 +17577,7 @@
         <v>1423</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -17597,7 +17597,7 @@
         <v>1425</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>2568</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -17617,7 +17617,7 @@
         <v>1428</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -17637,7 +17637,7 @@
         <v>1430</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>2570</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -17657,7 +17657,7 @@
         <v>1432</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -17677,7 +17677,7 @@
         <v>1434</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
         <v>1436</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -17717,7 +17717,7 @@
         <v>1438</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -17737,7 +17737,7 @@
         <v>1440</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -17757,7 +17757,7 @@
         <v>1442</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -17777,7 +17777,7 @@
         <v>1444</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -17797,7 +17797,7 @@
         <v>1446</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -17817,7 +17817,7 @@
         <v>1448</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -17837,7 +17837,7 @@
         <v>1450</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -17857,7 +17857,7 @@
         <v>1452</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -17877,7 +17877,7 @@
         <v>1454</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -17897,7 +17897,7 @@
         <v>1456</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -17917,7 +17917,7 @@
         <v>1458</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -17937,7 +17937,7 @@
         <v>1461</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -17957,7 +17957,7 @@
         <v>1463</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>2586</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -17977,7 +17977,7 @@
         <v>1465</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -17997,7 +17997,7 @@
         <v>1468</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -18017,7 +18017,7 @@
         <v>1553</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -18037,7 +18037,7 @@
         <v>1554</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>2095</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -18057,7 +18057,7 @@
         <v>1555</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>2096</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -18077,7 +18077,7 @@
         <v>1556</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>2097</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -18097,7 +18097,7 @@
         <v>1557</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>2098</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -18117,7 +18117,7 @@
         <v>1558</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>2099</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -18137,7 +18137,7 @@
         <v>1560</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -18157,7 +18157,7 @@
         <v>1562</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>2591</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -18177,7 +18177,7 @@
         <v>1564</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -18197,7 +18197,7 @@
         <v>1567</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -18217,7 +18217,7 @@
         <v>1569</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -18237,7 +18237,7 @@
         <v>1572</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -18257,7 +18257,7 @@
         <v>1574</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>2596</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -18277,7 +18277,7 @@
         <v>1577</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>2597</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -18297,7 +18297,7 @@
         <v>1579</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>2598</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -18317,7 +18317,7 @@
         <v>1581</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>2599</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -18337,7 +18337,7 @@
         <v>1583</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>2600</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -18357,7 +18357,7 @@
         <v>1585</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>2601</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -18377,7 +18377,7 @@
         <v>1587</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>2602</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -18397,7 +18397,7 @@
         <v>1589</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -18417,7 +18417,7 @@
         <v>1606</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -18437,7 +18437,7 @@
         <v>1608</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -18457,7 +18457,7 @@
         <v>1610</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>2606</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -18477,7 +18477,7 @@
         <v>1612</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>2607</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -18497,7 +18497,7 @@
         <v>1614</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>2608</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -18517,7 +18517,7 @@
         <v>1616</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -18537,7 +18537,7 @@
         <v>1618</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>2610</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -18557,7 +18557,7 @@
         <v>1620</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>2611</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -18577,7 +18577,7 @@
         <v>1622</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>2612</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -18597,7 +18597,7 @@
         <v>1624</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>2613</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -18617,7 +18617,7 @@
         <v>1626</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>2614</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -18637,7 +18637,7 @@
         <v>1628</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>2615</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -18657,7 +18657,7 @@
         <v>1630</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>2616</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -18677,7 +18677,7 @@
         <v>1632</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -18697,7 +18697,7 @@
         <v>1634</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -18717,7 +18717,7 @@
         <v>1636</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>2619</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -18737,7 +18737,7 @@
         <v>1638</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>2620</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -18757,7 +18757,7 @@
         <v>1640</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>2621</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -18777,7 +18777,7 @@
         <v>1642</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>2622</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -18797,7 +18797,7 @@
         <v>1644</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>2623</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -18817,7 +18817,7 @@
         <v>1646</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>2624</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -18837,7 +18837,7 @@
         <v>1648</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>2625</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -18857,7 +18857,7 @@
         <v>1650</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>2626</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -18877,7 +18877,7 @@
         <v>1652</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>2627</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -18897,7 +18897,7 @@
         <v>1654</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>2628</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -18917,7 +18917,7 @@
         <v>1656</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>2629</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -18937,7 +18937,7 @@
         <v>1658</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>2630</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -18957,7 +18957,7 @@
         <v>1660</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -18977,7 +18977,7 @@
         <v>1662</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -18997,7 +18997,7 @@
         <v>1664</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -19017,7 +19017,7 @@
         <v>1666</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -19037,7 +19037,7 @@
         <v>1668</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -19057,7 +19057,7 @@
         <v>1670</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -19077,7 +19077,7 @@
         <v>1672</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -19097,7 +19097,7 @@
         <v>1674</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -19117,7 +19117,7 @@
         <v>1676</v>
       </c>
       <c r="F535" s="3" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -19137,7 +19137,7 @@
         <v>1679</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>2640</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -19157,7 +19157,7 @@
         <v>1681</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>2641</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -19177,7 +19177,7 @@
         <v>1683</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>2642</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -19197,7 +19197,7 @@
         <v>1685</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>2643</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -19217,7 +19217,7 @@
         <v>1687</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>2644</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -19237,7 +19237,7 @@
         <v>1689</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>2645</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -19257,7 +19257,7 @@
         <v>1691</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>2646</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -19277,7 +19277,7 @@
         <v>1693</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>2647</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -19297,7 +19297,7 @@
         <v>1695</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -19317,7 +19317,7 @@
         <v>1697</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -19337,7 +19337,7 @@
         <v>1699</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -19357,7 +19357,7 @@
         <v>1701</v>
       </c>
       <c r="F547" s="3" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -19377,7 +19377,7 @@
         <v>1703</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -19397,7 +19397,7 @@
         <v>1705</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -19417,7 +19417,7 @@
         <v>1707</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>2654</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -19437,7 +19437,7 @@
         <v>1709</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>2655</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -19457,7 +19457,7 @@
         <v>1712</v>
       </c>
       <c r="F552" s="3" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -19477,7 +19477,7 @@
         <v>1714</v>
       </c>
       <c r="F553" s="3" t="s">
-        <v>2657</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -19497,7 +19497,7 @@
         <v>1716</v>
       </c>
       <c r="F554" s="3" t="s">
-        <v>2658</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -19517,7 +19517,7 @@
         <v>1718</v>
       </c>
       <c r="F555" s="3" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -19537,7 +19537,7 @@
         <v>1720</v>
       </c>
       <c r="F556" s="3" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -19557,7 +19557,7 @@
         <v>1723</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>2661</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -19577,7 +19577,7 @@
         <v>1725</v>
       </c>
       <c r="F558" s="3" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -19597,7 +19597,7 @@
         <v>1727</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>2663</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -19617,7 +19617,7 @@
         <v>2091</v>
       </c>
       <c r="F560" s="3" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -19637,7 +19637,7 @@
         <v>2092</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -19657,7 +19657,7 @@
         <v>1730</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>2665</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -19668,16 +19668,16 @@
         <v>5</v>
       </c>
       <c r="C563" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="D563" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="E563" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -19708,13 +19708,13 @@
         <v>5</v>
       </c>
       <c r="C565" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="D565" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="E565" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="F565" s="3">
         <v>10178</v>
@@ -21568,13 +21568,13 @@
         <v>5</v>
       </c>
       <c r="C658" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="D658" t="s">
         <v>505</v>
       </c>
       <c r="E658" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="F658" s="3">
         <v>648</v>
@@ -21588,13 +21588,13 @@
         <v>5</v>
       </c>
       <c r="C659" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="D659" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="E659" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="F659" s="3">
         <v>10018</v>
@@ -21617,7 +21617,7 @@
         <v>1933</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>2666</v>
+        <v>2661</v>
       </c>
     </row>
   </sheetData>
